--- a/02-Avancado1-Funcoes/10-ProfessorRespondidas/Aula-04-ExcelAvancado1-Revisao-CaracteresEspeciais.xlsx
+++ b/02-Avancado1-Funcoes/10-ProfessorRespondidas/Aula-04-ExcelAvancado1-Revisao-CaracteresEspeciais.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robson.svaamonde\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FA4169-4AF5-4E0C-95C1-A47EF51D490A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="13035"/>
   </bookViews>
   <sheets>
     <sheet name="Caracteres Especiais" sheetId="1" r:id="rId1"/>
@@ -22,111 +16,21 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Caracteres Especiais'!$B$18:$B$26</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
-  <si>
-    <t>Caracteres (Sinais) Especiais</t>
-  </si>
-  <si>
-    <t>Cálculo</t>
-  </si>
-  <si>
-    <t>Explicação</t>
-  </si>
-  <si>
-    <t>Cifrão</t>
-  </si>
-  <si>
-    <t>$</t>
-  </si>
-  <si>
-    <t>Cópia Absoluta (Congelar Célula) - F4</t>
-  </si>
-  <si>
-    <t>Aspas Simples</t>
-  </si>
-  <si>
-    <t>'</t>
-  </si>
-  <si>
-    <t>Comentários em Fórmulas</t>
-  </si>
-  <si>
-    <t>Aspas Duplas</t>
-  </si>
-  <si>
-    <t>"</t>
-  </si>
-  <si>
-    <t>Fórmulas com Texto</t>
-  </si>
-  <si>
-    <t>E-Comercial</t>
-  </si>
-  <si>
-    <t>&amp;</t>
-  </si>
-  <si>
-    <t>Concatenação de Texto em Fórmulas</t>
-  </si>
-  <si>
-    <t>Ponto e Vírgula</t>
-  </si>
-  <si>
-    <t>;</t>
-  </si>
-  <si>
-    <t>Separador de Intervalos em Fórmulas (e)</t>
-  </si>
-  <si>
-    <t>Dois Pontos</t>
-  </si>
-  <si>
-    <t>:</t>
-  </si>
-  <si>
-    <t>Intervalo de Células em Fórmulas (até)</t>
-  </si>
-  <si>
-    <t>Exclamação</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>Interligação de Planilhas do Excel</t>
-  </si>
-  <si>
-    <t>Colchetes</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>Interligação de Arquivo de Planilhas do Excel</t>
-  </si>
-  <si>
-    <t>Digite seu nome na célula abaixo (B3)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="63"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Robson Vaamonde
 LinkedIn: </t>
     </r>
@@ -136,7 +40,7 @@
         <sz val="11"/>
         <color rgb="FF0070C0"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>https://www.linkedin.com/in/robson-vaamonde-0b029028/</t>
     </r>
@@ -146,7 +50,7 @@
         <sz val="11"/>
         <color indexed="63"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 Instagram: </t>
@@ -157,7 +61,7 @@
         <sz val="11"/>
         <color rgb="FF0070C0"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>https://www.instagram.com/procedimentoem/</t>
     </r>
@@ -167,7 +71,7 @@
         <sz val="11"/>
         <color indexed="63"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 YouTUBE: </t>
@@ -178,12 +82,120 @@
         <sz val="11"/>
         <color rgb="FF0070C0"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>https://www.youtube.com/boraparapratica</t>
     </r>
   </si>
   <si>
+    <t>Caracteres (Sinais) Especiais</t>
+  </si>
+  <si>
+    <t>Cálculo</t>
+  </si>
+  <si>
+    <t>Explicação</t>
+  </si>
+  <si>
+    <t>Cifrão</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>Cópia Absoluta (Congelar Célula) - F4</t>
+  </si>
+  <si>
+    <t>=$B$9</t>
+  </si>
+  <si>
+    <t>Aspas Simples</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>Comentários em Fórmulas</t>
+  </si>
+  <si>
+    <t>=10+10</t>
+  </si>
+  <si>
+    <t>'=10+10</t>
+  </si>
+  <si>
+    <t>Aspas Duplas</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>Fórmulas com Texto</t>
+  </si>
+  <si>
+    <t>=(10&gt;"Vaamonde")</t>
+  </si>
+  <si>
+    <t>E-Comercial</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>Concatenação de Texto em Fórmulas</t>
+  </si>
+  <si>
+    <t>=(10+10&amp;" Estoque")</t>
+  </si>
+  <si>
+    <t>Ponto e Vírgula</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>Separador de Intervalos em Fórmulas (e)</t>
+  </si>
+  <si>
+    <t>=SOMA(B19;D19;F19;H19)</t>
+  </si>
+  <si>
+    <t>Dois Pontos</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>Intervalo de Células em Fórmulas (até)</t>
+  </si>
+  <si>
+    <t>=SOMA(B19:B26;G13;D19:D26;55)</t>
+  </si>
+  <si>
+    <t>Exclamação</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>Interligação de Planilhas do Excel</t>
+  </si>
+  <si>
+    <t>='Teste de Caracteres'!B3</t>
+  </si>
+  <si>
+    <t>Colchetes</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>Interligação de Arquivo de Planilhas do Excel</t>
+  </si>
+  <si>
+    <t>=[Teste.xlsx]Teste'!$A$1</t>
+  </si>
+  <si>
     <t>Valores 1</t>
   </si>
   <si>
@@ -196,6 +208,9 @@
     <t>Valores 4</t>
   </si>
   <si>
+    <t>Operadores de cálculo e precedência no Excel</t>
+  </si>
+  <si>
     <t>https://support.microsoft.com/pt-br/office/operadores-de-c%C3%A1lculo-e-preced%C3%AAncia-no-excel-48be406d-4975-4d31-b2b8-7af9e0e2878a</t>
   </si>
   <si>
@@ -205,10 +220,7 @@
     <t>https://support.microsoft.com/pt-br/office/usando-caracteres-curinga-em-pesquisas-ef94362e-9999-4350-ad74-4d2371110adb</t>
   </si>
   <si>
-    <t>Operadores de cálculo e precedência no Excel</t>
-  </si>
-  <si>
-    <t>=10+10</t>
+    <t>Digite seu nome na célula abaixo (B3)</t>
   </si>
   <si>
     <t>Robson Vaamonde</t>
@@ -217,8 +229,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color indexed="63"/>
@@ -230,6 +248,19 @@
       <sz val="11"/>
       <color indexed="63"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -240,47 +271,178 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="16"/>
+      <color indexed="63"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color indexed="63"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -289,12 +451,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <fgColor theme="0" tint="-0.14996795556505"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -317,102 +665,381 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="41" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="41">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Ênfase 6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Ênfase 6" xfId="2" builtinId="51"/>
+    <cellStyle name="20% - Ênfase 6" xfId="3" builtinId="50"/>
+    <cellStyle name="40% - Ênfase 5" xfId="4" builtinId="47"/>
+    <cellStyle name="Ênfase 5" xfId="5" builtinId="45"/>
+    <cellStyle name="Ênfase 4" xfId="6" builtinId="41"/>
+    <cellStyle name="Título 4" xfId="7" builtinId="19"/>
+    <cellStyle name="60% - Ênfase 3" xfId="8" builtinId="40"/>
+    <cellStyle name="20% - Ênfase 3" xfId="9" builtinId="38"/>
+    <cellStyle name="Ênfase 3" xfId="10" builtinId="37"/>
+    <cellStyle name="Título 3" xfId="11" builtinId="18"/>
+    <cellStyle name="60% - Ênfase 2" xfId="12" builtinId="36"/>
+    <cellStyle name="Célula de Verificação" xfId="13" builtinId="23"/>
+    <cellStyle name="40% - Ênfase 2" xfId="14" builtinId="35"/>
+    <cellStyle name="60% - Ênfase 5" xfId="15" builtinId="48"/>
+    <cellStyle name="Ênfase 2" xfId="16" builtinId="33"/>
+    <cellStyle name="Ênfase 6" xfId="17" builtinId="49"/>
+    <cellStyle name="40% - Ênfase 1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Ênfase 1" xfId="19" builtinId="30"/>
+    <cellStyle name="60% - Ênfase 4" xfId="20" builtinId="44"/>
+    <cellStyle name="Ênfase 1" xfId="21" builtinId="29"/>
+    <cellStyle name="40% - Ênfase 4" xfId="22" builtinId="43"/>
+    <cellStyle name="Ruim" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Ênfase 4" xfId="24" builtinId="42"/>
+    <cellStyle name="Saída" xfId="25" builtinId="21"/>
+    <cellStyle name="Hyperlink seguido" xfId="26" builtinId="9"/>
+    <cellStyle name="Moeda [0]" xfId="27" builtinId="7"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bom" xfId="29" builtinId="26"/>
+    <cellStyle name="40% - Ênfase 3" xfId="30" builtinId="39"/>
+    <cellStyle name="Texto de Aviso" xfId="31" builtinId="11"/>
+    <cellStyle name="Cálculo" xfId="32" builtinId="22"/>
+    <cellStyle name="Entrada" xfId="33" builtinId="20"/>
+    <cellStyle name="Texto Explicativo" xfId="34" builtinId="53"/>
+    <cellStyle name="Título 1" xfId="35" builtinId="16"/>
+    <cellStyle name="Título" xfId="36" builtinId="15"/>
+    <cellStyle name="Observação" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - Ênfase 2" xfId="38" builtinId="34"/>
+    <cellStyle name="60% - Ênfase 1" xfId="39" builtinId="32"/>
+    <cellStyle name="Título 2" xfId="40" builtinId="17"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8"/>
+    <cellStyle name="Célula Vinculada" xfId="42" builtinId="24"/>
+    <cellStyle name="Comma" xfId="43" builtinId="3"/>
+    <cellStyle name="Porcentagem" xfId="44" builtinId="5"/>
+    <cellStyle name="Neutro" xfId="45" builtinId="28"/>
+    <cellStyle name="20% - Ênfase 5" xfId="46" builtinId="46"/>
+    <cellStyle name="Moeda" xfId="47" builtinId="4"/>
+    <cellStyle name="Comma [0]" xfId="48" builtinId="6"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -428,19 +1055,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagem 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E418012F-8AA2-42F9-A6D1-872AC6CA288A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="Imagem 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -453,8 +1074,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="629965" y="182252"/>
-          <a:ext cx="1006093" cy="891442"/>
+          <a:off x="721360" y="183515"/>
+          <a:ext cx="1005840" cy="898525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -472,25 +1093,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>350302</xdr:colOff>
+      <xdr:colOff>11212</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>168537</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagem 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B4E5AA8-A7E1-4DE4-A9D0-EBA09D4AE7AF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="Imagem 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -503,8 +1118,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6891619" y="206110"/>
-          <a:ext cx="1762242" cy="858898"/>
+          <a:off x="8100060" y="207645"/>
+          <a:ext cx="2034540" cy="865505"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -523,24 +1138,18 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>522149</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>162382</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>57607</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Imagem 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00D790B5-025D-4F1A-8BC8-6A57C3F556D8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="Imagem 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -553,8 +1162,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9076765" y="0"/>
-          <a:ext cx="4466619" cy="4655941"/>
+          <a:off x="10291445" y="0"/>
+          <a:ext cx="5078095" cy="4667250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -567,11 +1176,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Teste"/>
     </sheetNames>
@@ -579,7 +1185,7 @@
       <sheetData sheetId="0">
         <row r="1">
           <cell r="A1" t="str">
-            <v>SENAC</v>
+            <v>Vaamonde</v>
           </cell>
         </row>
       </sheetData>
@@ -911,477 +1517,498 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.14166666666667" customWidth="1"/>
+    <col min="2" max="2" width="16.5666666666667" customWidth="1"/>
+    <col min="3" max="3" width="11.2833333333333" customWidth="1"/>
+    <col min="4" max="4" width="16.2833333333333" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="28.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" customWidth="1"/>
-    <col min="10" max="16" width="9.140625" customWidth="1"/>
-    <col min="17" max="19" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" hidden="1"/>
+    <col min="6" max="6" width="16.2833333333333" customWidth="1"/>
+    <col min="7" max="7" width="16.425" style="4" customWidth="1"/>
+    <col min="8" max="8" width="32.875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="7.14166666666667" customWidth="1"/>
+    <col min="10" max="16" width="9.14166666666667" customWidth="1"/>
+    <col min="17" max="19" width="9.14166666666667" hidden="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.14166666666667" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="13" customFormat="1" ht="14.25">
-      <c r="A1" s="12"/>
-    </row>
-    <row r="2" spans="1:11" s="13" customFormat="1" ht="14.25">
-      <c r="B2" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-    </row>
-    <row r="3" spans="1:11" s="13" customFormat="1" ht="14.25">
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-    </row>
-    <row r="4" spans="1:11" s="13" customFormat="1" ht="14.25">
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-    </row>
-    <row r="5" spans="1:11" s="13" customFormat="1" ht="14.25">
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-    </row>
-    <row r="6" spans="1:11" s="13" customFormat="1" ht="14.25">
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-    </row>
-    <row r="7" spans="1:11" s="13" customFormat="1" ht="14.25"/>
-    <row r="8" spans="1:11">
-      <c r="B8" s="22" t="s">
+    <row r="1" s="3" customFormat="1" ht="14.25" spans="1:1">
+      <c r="A1" s="5"/>
+    </row>
+    <row r="2" s="3" customFormat="1" ht="14.25" spans="2:8">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="7" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" s="3" customFormat="1" ht="14.25" spans="2:8">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" s="3" customFormat="1" ht="14.25" spans="2:8">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" s="3" customFormat="1" ht="14.25" spans="2:8">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" s="3" customFormat="1" ht="14.25" spans="2:8">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" s="3" customFormat="1" ht="14.25"/>
+    <row r="8" ht="14.25" spans="2:11">
+      <c r="B8" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="K8" s="9"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="B9" s="3" t="s">
+      <c r="H8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="C9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="5" t="str">
+      <c r="D9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11" t="str">
         <f>$B$9</f>
         <v>Cifrão</v>
       </c>
-      <c r="H9" s="8"/>
-      <c r="K9" s="9"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="B10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="11" t="s">
+      <c r="H9" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="8"/>
-      <c r="K10" s="9"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="B11" s="3" t="s">
+      <c r="C10" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="19" t="s">
+      <c r="D10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="8" t="b">
+      <c r="H10" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="13"/>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="19" t="b">
         <f>(10&gt;"SENAC")</f>
         <v>0</v>
       </c>
-      <c r="H11" s="8"/>
-      <c r="K11" s="9"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="B12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="8" t="str">
-        <f>(10+10&amp;" SENAC")</f>
-        <v>20 SENAC</v>
-      </c>
-      <c r="H12" s="8"/>
-      <c r="K12" s="9"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="B13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="H11" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="8">
+      <c r="C12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="19" t="str">
+        <f>(10+10&amp;" Estoque")</f>
+        <v>20 Estoque</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="19">
         <f>SUM(B19,D19,F19,H19)</f>
         <v>40</v>
       </c>
-      <c r="H13" s="8"/>
-      <c r="K13" s="9"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="B14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="5">
+      <c r="H13" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="13"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11">
         <f>SUM(B19:B26,G13,D19:D26,55)</f>
         <v>255</v>
       </c>
-      <c r="H14" s="8"/>
-      <c r="K14" s="9"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="B15" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="5" t="str">
+      <c r="H14" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="13"/>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11" t="str">
         <f>'Teste de Caracteres'!B3</f>
         <v>Robson Vaamonde</v>
       </c>
-      <c r="H15" s="8"/>
-      <c r="K15" s="9"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="B16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="5" t="str">
+      <c r="H15" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="13"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11" t="str">
         <f>[1]Teste!$A$1</f>
-        <v>SENAC</v>
-      </c>
-      <c r="H16" s="8"/>
-      <c r="K16" s="9"/>
-    </row>
-    <row r="17" spans="2:8"/>
-    <row r="18" spans="2:8">
-      <c r="B18" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="1">
-        <v>10</v>
-      </c>
-      <c r="D19" s="1">
-        <v>10</v>
-      </c>
-      <c r="F19" s="1">
-        <v>10</v>
-      </c>
-      <c r="H19" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="1">
-        <v>10</v>
-      </c>
-      <c r="D20" s="1">
-        <v>10</v>
-      </c>
-      <c r="F20" s="1">
-        <v>10</v>
-      </c>
-      <c r="H20" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="1">
-        <v>10</v>
-      </c>
-      <c r="D21" s="1">
-        <v>10</v>
-      </c>
-      <c r="F21" s="1">
-        <v>10</v>
-      </c>
-      <c r="H21" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="1">
-        <v>10</v>
-      </c>
-      <c r="D22" s="1">
-        <v>10</v>
-      </c>
-      <c r="F22" s="1">
-        <v>10</v>
-      </c>
-      <c r="H22" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="1">
-        <v>10</v>
-      </c>
-      <c r="D23" s="1">
-        <v>10</v>
-      </c>
-      <c r="F23" s="1">
-        <v>10</v>
-      </c>
-      <c r="H23" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="1">
-        <v>10</v>
-      </c>
-      <c r="D24" s="1">
-        <v>10</v>
-      </c>
-      <c r="F24" s="1">
-        <v>10</v>
-      </c>
-      <c r="H24" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="B25" s="1">
-        <v>10</v>
-      </c>
-      <c r="D25" s="1">
-        <v>10</v>
-      </c>
-      <c r="F25" s="1">
-        <v>10</v>
-      </c>
-      <c r="H25" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="B26" s="1">
-        <v>10</v>
-      </c>
-      <c r="D26" s="1">
-        <v>10</v>
-      </c>
-      <c r="F26" s="1">
-        <v>10</v>
-      </c>
-      <c r="H26" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="H27" s="9"/>
-    </row>
-    <row r="28" spans="2:8" ht="21">
-      <c r="B28" s="17" t="s">
+        <v>Vaamonde</v>
+      </c>
+      <c r="H16" s="20" t="s">
         <v>36</v>
+      </c>
+      <c r="K16" s="13"/>
+    </row>
+    <row r="17"/>
+    <row r="18" ht="14.25" spans="2:8">
+      <c r="B18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" spans="2:8">
+      <c r="B19" s="2">
+        <v>10</v>
+      </c>
+      <c r="D19" s="2">
+        <v>10</v>
+      </c>
+      <c r="F19" s="2">
+        <v>10</v>
+      </c>
+      <c r="H19" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" spans="2:8">
+      <c r="B20" s="2">
+        <v>10</v>
+      </c>
+      <c r="D20" s="2">
+        <v>10</v>
+      </c>
+      <c r="F20" s="2">
+        <v>10</v>
+      </c>
+      <c r="H20" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" spans="2:8">
+      <c r="B21" s="2">
+        <v>10</v>
+      </c>
+      <c r="D21" s="2">
+        <v>10</v>
+      </c>
+      <c r="F21" s="2">
+        <v>10</v>
+      </c>
+      <c r="H21" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" spans="2:8">
+      <c r="B22" s="2">
+        <v>10</v>
+      </c>
+      <c r="D22" s="2">
+        <v>10</v>
+      </c>
+      <c r="F22" s="2">
+        <v>10</v>
+      </c>
+      <c r="H22" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" spans="2:8">
+      <c r="B23" s="2">
+        <v>10</v>
+      </c>
+      <c r="D23" s="2">
+        <v>10</v>
+      </c>
+      <c r="F23" s="2">
+        <v>10</v>
+      </c>
+      <c r="H23" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" spans="2:8">
+      <c r="B24" s="2">
+        <v>10</v>
+      </c>
+      <c r="D24" s="2">
+        <v>10</v>
+      </c>
+      <c r="F24" s="2">
+        <v>10</v>
+      </c>
+      <c r="H24" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" spans="2:8">
+      <c r="B25" s="2">
+        <v>10</v>
+      </c>
+      <c r="D25" s="2">
+        <v>10</v>
+      </c>
+      <c r="F25" s="2">
+        <v>10</v>
+      </c>
+      <c r="H25" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" spans="2:8">
+      <c r="B26" s="2">
+        <v>10</v>
+      </c>
+      <c r="D26" s="2">
+        <v>10</v>
+      </c>
+      <c r="F26" s="2">
+        <v>10</v>
+      </c>
+      <c r="H26" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" spans="2:8">
+      <c r="B27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="H27" s="13"/>
+    </row>
+    <row r="28" ht="19.5" spans="2:8">
+      <c r="B28" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="G28"/>
       <c r="H28"/>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" ht="14.25" spans="2:8">
       <c r="B29" s="15" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G29"/>
       <c r="H29"/>
     </row>
-    <row r="30" spans="2:8">
-      <c r="B30" s="14"/>
+    <row r="30" ht="14.25" spans="2:8">
+      <c r="B30" s="16"/>
       <c r="G30"/>
       <c r="H30"/>
     </row>
-    <row r="31" spans="2:8" ht="21">
-      <c r="B31" s="18" t="s">
-        <v>34</v>
+    <row r="31" ht="19.5" spans="2:8">
+      <c r="B31" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="G31"/>
       <c r="H31"/>
     </row>
-    <row r="32" spans="2:8">
-      <c r="B32" s="16" t="s">
-        <v>35</v>
+    <row r="32" ht="14.25" spans="2:8">
+      <c r="B32" s="18" t="s">
+        <v>44</v>
       </c>
       <c r="G32"/>
       <c r="H32"/>
     </row>
-    <row r="33" spans="7:8">
+    <row r="33" ht="14.25" spans="7:8">
       <c r="G33"/>
       <c r="H33"/>
     </row>
+    <row r="34" ht="14.25" hidden="1"/>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="B2:H6"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="D13:F13"/>
     <mergeCell ref="D14:F14"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="B2:H6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B29" r:id="rId1" xr:uid="{478DF751-119B-4EAA-B39E-97BC80E1A191}"/>
-    <hyperlink ref="B32" r:id="rId2" xr:uid="{3B3B022E-37C2-48F2-96B6-2FB792AD1291}"/>
+    <hyperlink ref="B29" r:id="rId2" display="https://support.microsoft.com/pt-br/office/operadores-de-c%C3%A1lculo-e-preced%C3%AAncia-no-excel-48be406d-4975-4d31-b2b8-7af9e0e2878a"/>
+    <hyperlink ref="B32" r:id="rId3" display="https://support.microsoft.com/pt-br/office/usando-caracteres-curinga-em-pesquisas-ef94362e-9999-4350-ad74-4d2371110adb"/>
   </hyperlinks>
-  <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78680555555555598" bottom="0.78680555555555598" header="0.31388888888888899" footer="0.31388888888888899"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.786805555555556" bottom="0.786805555555556" header="0.313888888888889" footer="0.313888888888889"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:B5"/>
   <sheetViews>
     <sheetView zoomScale="400" zoomScaleNormal="400" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="34.85546875" customWidth="1"/>
+    <col min="2" max="2" width="34.8583333333333" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="9" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
     <col min="6" max="16384" width="9" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2"/>
-    <row r="2" spans="2:2">
-      <c r="B2" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2">
-      <c r="B3" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2"/>
+    <row r="1" ht="14.25"/>
+    <row r="2" ht="14.25" spans="2:2">
+      <c r="B2" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="2:2">
+      <c r="B3" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25"/>
+    <row r="5" ht="14.25" hidden="1"/>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>